--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>9099588</v>
+        <v>9079840</v>
       </c>
       <c r="P8" t="n">
         <v>4709248000</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9031205</v>
+        <v>9009777</v>
       </c>
       <c r="P10" t="n">
         <v>6293245952</v>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>30049812</v>
+        <v>30021066</v>
       </c>
       <c r="P18" t="n">
         <v>350018011136</v>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>23343248</v>
+        <v>23359055</v>
       </c>
       <c r="P29" t="n">
         <v>29094000640</v>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>95798042</v>
+        <v>96057958</v>
       </c>
       <c r="P38" t="n">
         <v>20819873792</v>
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>4865789</v>
+        <v>4865979</v>
       </c>
       <c r="P42" t="n">
         <v>4044999936</v>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3976646</v>
+        <v>3976050</v>
       </c>
       <c r="P72" t="n">
         <v>38498000896</v>
@@ -6721,7 +6721,7 @@
         <v>-0.0024349</v>
       </c>
       <c r="O73" t="n">
-        <v>3152385</v>
+        <v>3152300</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>0.023991</v>
       </c>
       <c r="O80" t="n">
-        <v>5511228</v>
+        <v>5489987</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>17534168</v>
+        <v>17516672</v>
       </c>
       <c r="P94" t="n">
         <v>164500996096</v>
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>3289104</v>
+        <v>3289076</v>
       </c>
       <c r="P98" t="n">
         <v>19903399936</v>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>3321334</v>
+        <v>3321487</v>
       </c>
       <c r="P106" t="n">
         <v>509400992</v>
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>4214630</v>
+        <v>4214408</v>
       </c>
       <c r="P123" t="n">
         <v>19672000512</v>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>4717409</v>
+        <v>4715475</v>
       </c>
       <c r="P135" t="n">
         <v>39000965120</v>
@@ -12236,7 +12236,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>811100</v>
+        <v>811079</v>
       </c>
       <c r="P136" t="n">
         <v>1237650944</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>56770023</v>
+        <v>56833360</v>
       </c>
       <c r="P2" t="n">
         <v>395760009216</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>3763827</v>
+        <v>3773054</v>
       </c>
       <c r="P11" t="n">
         <v>3740421120</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>6212869</v>
+        <v>6215541</v>
       </c>
       <c r="P12" t="n">
         <v>4767698944</v>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>5125418</v>
+        <v>5126325</v>
       </c>
       <c r="P16" t="n">
         <v>5955800064</v>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>30021066</v>
+        <v>30049812</v>
       </c>
       <c r="P18" t="n">
         <v>350018011136</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>22602980</v>
+        <v>22608252</v>
       </c>
       <c r="P26" t="n">
         <v>16209088512</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>32825089</v>
+        <v>32845658</v>
       </c>
       <c r="P28" t="n">
         <v>261802000384</v>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>388048549</v>
+        <v>389091145</v>
       </c>
       <c r="P30" t="n">
         <v>130497003520</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4231611</v>
+        <v>4231960</v>
       </c>
       <c r="P31" t="n">
         <v>12613999616</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>8453505</v>
+        <v>8455499</v>
       </c>
       <c r="P32" t="n">
         <v>91853996032</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>125697196</v>
+        <v>125977426</v>
       </c>
       <c r="P33" t="n">
         <v>2865507072</v>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>89229455</v>
+        <v>89482134</v>
       </c>
       <c r="P39" t="n">
         <v>84693000</v>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>305454</v>
+        <v>305396</v>
       </c>
       <c r="P66" t="n">
         <v>23739000832</v>
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>3305530</v>
+        <v>3307117</v>
       </c>
       <c r="P67" t="n">
         <v>258805006336</v>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>26707713</v>
+        <v>26711832</v>
       </c>
       <c r="P68" t="n">
         <v>54175997952</v>
@@ -7332,7 +7332,7 @@
         <v>0.023991</v>
       </c>
       <c r="O80" t="n">
-        <v>5489987</v>
+        <v>5511228</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>-0.020385101</v>
       </c>
       <c r="O90" t="n">
-        <v>11831519</v>
+        <v>11830980</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>3321487</v>
+        <v>3321334</v>
       </c>
       <c r="P106" t="n">
         <v>509400992</v>
@@ -10142,7 +10142,7 @@
         <v>0.1401269</v>
       </c>
       <c r="O112" t="n">
-        <v>60702</v>
+        <v>60698</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>4214408</v>
+        <v>4214630</v>
       </c>
       <c r="P123" t="n">
         <v>19672000512</v>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="O126" t="n">
-        <v>5189033</v>
+        <v>5190538</v>
       </c>
       <c r="P126" t="n">
         <v>8570500096</v>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="O133" t="n">
-        <v>103968002</v>
+        <v>104133777</v>
       </c>
       <c r="P133" t="n">
         <v>53100998656</v>
@@ -12236,7 +12236,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>811079</v>
+        <v>811100</v>
       </c>
       <c r="P136" t="n">
         <v>1237650944</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -580,7 +580,7 @@
         <v>164.08</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2</v>
+        <v>1.178</v>
       </c>
       <c r="L2" t="n">
         <v>0.38115358</v>
@@ -657,7 +657,7 @@
         <v>278.69</v>
       </c>
       <c r="K3" t="n">
-        <v>1.235</v>
+        <v>1.239</v>
       </c>
       <c r="L3" t="n">
         <v>-0.09176201</v>
@@ -738,7 +738,7 @@
         <v>18.85</v>
       </c>
       <c r="K4" t="n">
-        <v>1.969</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
         <v>-0.3117112</v>
@@ -817,7 +817,7 @@
         <v>98.69</v>
       </c>
       <c r="K5" t="n">
-        <v>1.651</v>
+        <v>1.736</v>
       </c>
       <c r="L5" t="n">
         <v>-0.51373196</v>
@@ -991,7 +991,7 @@
         <v>151.61</v>
       </c>
       <c r="K7" t="n">
-        <v>1.156</v>
+        <v>1.192</v>
       </c>
       <c r="L7" t="n">
         <v>0.19540489</v>
@@ -1070,7 +1070,7 @@
         <v>59.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="L8" t="n">
         <v>4.26491</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>9079840</v>
+        <v>9099588</v>
       </c>
       <c r="P8" t="n">
         <v>4709248000</v>
@@ -1147,7 +1147,7 @@
         <v>119.756</v>
       </c>
       <c r="K9" t="n">
-        <v>1.039</v>
+        <v>1.03</v>
       </c>
       <c r="L9" t="n">
         <v>0.42220414</v>
@@ -1226,7 +1226,7 @@
         <v>146.12</v>
       </c>
       <c r="K10" t="n">
-        <v>3.615</v>
+        <v>3.664</v>
       </c>
       <c r="L10" t="n">
         <v>-0.0590443</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9009777</v>
+        <v>9031205</v>
       </c>
       <c r="P10" t="n">
         <v>6293245952</v>
@@ -1305,7 +1305,7 @@
         <v>200.81</v>
       </c>
       <c r="K11" t="n">
-        <v>1.159</v>
+        <v>1.193</v>
       </c>
       <c r="L11" t="n">
         <v>0.24170673</v>
@@ -1386,7 +1386,7 @@
         <v>28.69</v>
       </c>
       <c r="K12" t="n">
-        <v>1.923</v>
+        <v>2.069</v>
       </c>
       <c r="L12" t="n">
         <v>-0.022509456</v>
@@ -1756,7 +1756,7 @@
         <v>54.57</v>
       </c>
       <c r="K16" t="n">
-        <v>1.011</v>
+        <v>0.968</v>
       </c>
       <c r="L16" t="n">
         <v>0.512957</v>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>5126325</v>
+        <v>5125418</v>
       </c>
       <c r="P16" t="n">
         <v>5955800064</v>
@@ -1833,7 +1833,7 @@
         <v>96.92</v>
       </c>
       <c r="K17" t="n">
-        <v>0.842</v>
+        <v>0.843</v>
       </c>
       <c r="L17" t="n">
         <v>-0.10710901</v>
@@ -1910,7 +1910,7 @@
         <v>131.55</v>
       </c>
       <c r="K18" t="n">
-        <v>0.991</v>
+        <v>1.025</v>
       </c>
       <c r="L18" t="n">
         <v>0.2833085</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>59418086</v>
+        <v>59648323</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>0.10130689</v>
       </c>
       <c r="O23" t="n">
-        <v>247812</v>
+        <v>247804</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>68.87</v>
       </c>
       <c r="K26" t="n">
-        <v>1.469</v>
+        <v>1.541</v>
       </c>
       <c r="L26" t="n">
         <v>-0.21495211</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>22608252</v>
+        <v>22602980</v>
       </c>
       <c r="P26" t="n">
         <v>16209088512</v>
@@ -2725,7 +2725,7 @@
         <v>243.53</v>
       </c>
       <c r="K27" t="n">
-        <v>0.738</v>
+        <v>0.706</v>
       </c>
       <c r="L27" t="n">
         <v>0.059771776</v>
@@ -2806,7 +2806,7 @@
         <v>385.58</v>
       </c>
       <c r="K28" t="n">
-        <v>0.895</v>
+        <v>0.914</v>
       </c>
       <c r="L28" t="n">
         <v>-0.04321313</v>
@@ -2883,7 +2883,7 @@
         <v>83.54000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>1.18</v>
+        <v>1.228</v>
       </c>
       <c r="L29" t="n">
         <v>-0.022345185</v>
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>23359055</v>
+        <v>23343248</v>
       </c>
       <c r="P29" t="n">
         <v>29094000640</v>
@@ -2960,7 +2960,7 @@
         <v>75.60599999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>1.619</v>
+        <v>1.765</v>
       </c>
       <c r="L30" t="n">
         <v>0.46556067</v>
@@ -3037,7 +3037,7 @@
         <v>198.21</v>
       </c>
       <c r="K31" t="n">
-        <v>1.471</v>
+        <v>1.476</v>
       </c>
       <c r="L31" t="n">
         <v>-0.1522218</v>
@@ -3114,7 +3114,7 @@
         <v>141.51</v>
       </c>
       <c r="K32" t="n">
-        <v>0.547</v>
+        <v>0.53</v>
       </c>
       <c r="L32" t="n">
         <v>-0.07195985000000001</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>8455499</v>
+        <v>8453505</v>
       </c>
       <c r="P32" t="n">
         <v>91853996032</v>
@@ -3193,7 +3193,7 @@
         <v>20.33</v>
       </c>
       <c r="K33" t="n">
-        <v>2.811</v>
+        <v>2.806</v>
       </c>
       <c r="L33" t="n">
         <v>2.532446</v>
@@ -3389,7 +3389,7 @@
         <v>0.2058606</v>
       </c>
       <c r="O35" t="n">
-        <v>47554859</v>
+        <v>47654043</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>40.25</v>
       </c>
       <c r="K36" t="n">
-        <v>0.511</v>
+        <v>0.482</v>
       </c>
       <c r="L36" t="n">
         <v>0.11220968</v>
@@ -3634,7 +3634,7 @@
         <v>17.25</v>
       </c>
       <c r="K38" t="n">
-        <v>1.297</v>
+        <v>1.203</v>
       </c>
       <c r="L38" t="n">
         <v>-0.61408865</v>
@@ -3715,7 +3715,7 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.732</v>
+        <v>2.843</v>
       </c>
       <c r="L39" t="n">
         <v>0.9235556</v>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>89482134</v>
+        <v>89229455</v>
       </c>
       <c r="P39" t="n">
         <v>84693000</v>
@@ -3812,7 +3812,7 @@
         <v>0.2309517</v>
       </c>
       <c r="O40" t="n">
-        <v>3722143</v>
+        <v>3721545</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>62.01</v>
       </c>
       <c r="K42" t="n">
-        <v>1.142</v>
+        <v>1.178</v>
       </c>
       <c r="L42" t="n">
         <v>-0.36453766</v>
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>4865979</v>
+        <v>4865789</v>
       </c>
       <c r="P42" t="n">
         <v>4044999936</v>
@@ -4057,7 +4057,7 @@
         <v>125.78</v>
       </c>
       <c r="K43" t="n">
-        <v>1.244</v>
+        <v>1.255</v>
       </c>
       <c r="L43" t="n">
         <v>0.30572832</v>
@@ -4795,7 +4795,7 @@
         <v>62.4</v>
       </c>
       <c r="K51" t="n">
-        <v>1.637</v>
+        <v>1.709</v>
       </c>
       <c r="L51" t="n">
         <v>0.32752132</v>
@@ -5167,7 +5167,7 @@
         <v>684.14</v>
       </c>
       <c r="K55" t="n">
-        <v>0.715</v>
+        <v>0.734</v>
       </c>
       <c r="L55" t="n">
         <v>-0.009894251999999999</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>1214751</v>
+        <v>1214752</v>
       </c>
       <c r="P55" t="n">
         <v>8173000192</v>
@@ -5244,7 +5244,7 @@
         <v>645.45</v>
       </c>
       <c r="K56" t="n">
-        <v>1.082</v>
+        <v>1.113</v>
       </c>
       <c r="L56" t="n">
         <v>-0.28952748</v>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>1772730</v>
+        <v>1773419</v>
       </c>
       <c r="P56" t="n">
         <v>28262899712</v>
@@ -6077,7 +6077,7 @@
         <v>153.95</v>
       </c>
       <c r="K65" t="n">
-        <v>1.521</v>
+        <v>1.619</v>
       </c>
       <c r="L65" t="n">
         <v>-0.24545324</v>
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>9404459</v>
+        <v>9427575</v>
       </c>
       <c r="P65" t="n">
         <v>27634999296</v>
@@ -6154,7 +6154,7 @@
         <v>3180</v>
       </c>
       <c r="K66" t="n">
-        <v>1.392</v>
+        <v>1.404</v>
       </c>
       <c r="L66" t="n">
         <v>0.44912755</v>
@@ -6235,7 +6235,7 @@
         <v>697.27</v>
       </c>
       <c r="K67" t="n">
-        <v>0.83</v>
+        <v>0.805</v>
       </c>
       <c r="L67" t="n">
         <v>0.38124025</v>
@@ -6312,7 +6312,7 @@
         <v>44.5</v>
       </c>
       <c r="K68" t="n">
-        <v>0.827</v>
+        <v>0.776</v>
       </c>
       <c r="L68" t="n">
         <v>0.3049053</v>
@@ -6389,7 +6389,7 @@
         <v>135.37</v>
       </c>
       <c r="K69" t="n">
-        <v>1.098</v>
+        <v>1.062</v>
       </c>
       <c r="L69" t="n">
         <v>0.06542182000000001</v>
@@ -6466,7 +6466,7 @@
         <v>130.67</v>
       </c>
       <c r="K70" t="n">
-        <v>0.991</v>
+        <v>1.025</v>
       </c>
       <c r="L70" t="n">
         <v>0.27694035</v>
@@ -6543,7 +6543,7 @@
         <v>323.77</v>
       </c>
       <c r="K71" t="n">
-        <v>1.058</v>
+        <v>1.09</v>
       </c>
       <c r="L71" t="n">
         <v>0.04266894</v>
@@ -6620,7 +6620,7 @@
         <v>189.75</v>
       </c>
       <c r="K72" t="n">
-        <v>1.045</v>
+        <v>1.069</v>
       </c>
       <c r="L72" t="n">
         <v>0.068510294</v>
@@ -6980,7 +6980,7 @@
         <v>153.52</v>
       </c>
       <c r="K76" t="n">
-        <v>0.445</v>
+        <v>0.4</v>
       </c>
       <c r="L76" t="n">
         <v>0.089496136</v>
@@ -7057,7 +7057,7 @@
         <v>89.14</v>
       </c>
       <c r="K77" t="n">
-        <v>0.549</v>
+        <v>0.491</v>
       </c>
       <c r="L77" t="n">
         <v>0.47914577</v>
@@ -7134,7 +7134,7 @@
         <v>61.01</v>
       </c>
       <c r="K78" t="n">
-        <v>0.989</v>
+        <v>0.978</v>
       </c>
       <c r="L78" t="n">
         <v>0.17578351</v>
@@ -7332,7 +7332,7 @@
         <v>0.023991</v>
       </c>
       <c r="O80" t="n">
-        <v>5511228</v>
+        <v>5489987</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>218.55</v>
       </c>
       <c r="K81" t="n">
-        <v>1.065</v>
+        <v>1.052</v>
       </c>
       <c r="L81" t="n">
         <v>-0.026748717</v>
@@ -8078,7 +8078,7 @@
         <v>115.4</v>
       </c>
       <c r="K88" t="n">
-        <v>1.282</v>
+        <v>1.26</v>
       </c>
       <c r="L88" t="n">
         <v>0.09591639</v>
@@ -8175,7 +8175,7 @@
         <v>0.040471002</v>
       </c>
       <c r="O89" t="n">
-        <v>1354100</v>
+        <v>1354141</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>-0.020385101</v>
       </c>
       <c r="O90" t="n">
-        <v>11830980</v>
+        <v>11831519</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>428.86</v>
       </c>
       <c r="K93" t="n">
-        <v>1.103</v>
+        <v>1.102</v>
       </c>
       <c r="L93" t="n">
         <v>0.23014367</v>
@@ -8606,7 +8606,7 @@
         <v>414.5</v>
       </c>
       <c r="K94" t="n">
-        <v>1.2</v>
+        <v>1.231</v>
       </c>
       <c r="L94" t="n">
         <v>0.3412553</v>
@@ -8683,7 +8683,7 @@
         <v>66.62</v>
       </c>
       <c r="K95" t="n">
-        <v>0.521</v>
+        <v>0.446</v>
       </c>
       <c r="L95" t="n">
         <v>0.31656897</v>
@@ -8760,7 +8760,7 @@
         <v>252.7</v>
       </c>
       <c r="K96" t="n">
-        <v>0.965</v>
+        <v>0.949</v>
       </c>
       <c r="L96" t="n">
         <v>0.2929455</v>
@@ -8837,7 +8837,7 @@
         <v>58.4</v>
       </c>
       <c r="K97" t="n">
-        <v>0.552</v>
+        <v>0.537</v>
       </c>
       <c r="L97" t="n">
         <v>0.66290045</v>
@@ -8914,7 +8914,7 @@
         <v>231.27</v>
       </c>
       <c r="K98" t="n">
-        <v>0.806</v>
+        <v>0.777</v>
       </c>
       <c r="L98" t="n">
         <v>0.28017867</v>
@@ -9086,7 +9086,7 @@
         <v>90.22</v>
       </c>
       <c r="K100" t="n">
-        <v>0.487</v>
+        <v>0.465</v>
       </c>
       <c r="L100" t="n">
         <v>0.27126157</v>
@@ -9539,7 +9539,7 @@
         <v>711.4</v>
       </c>
       <c r="K105" t="n">
-        <v>0.412</v>
+        <v>0.335</v>
       </c>
       <c r="L105" t="n">
         <v>0.16200078</v>
@@ -9618,7 +9618,7 @@
         <v>40.65</v>
       </c>
       <c r="K106" t="n">
-        <v>1.402</v>
+        <v>1.429</v>
       </c>
       <c r="L106" t="n">
         <v>-0.21377224</v>
@@ -9697,7 +9697,7 @@
         <v>53.19</v>
       </c>
       <c r="K107" t="n">
-        <v>1.395</v>
+        <v>1.419</v>
       </c>
       <c r="L107" t="n">
         <v>0.15715182</v>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>22330866</v>
+        <v>22345355</v>
       </c>
       <c r="P107" t="n">
         <v>5376399872</v>
@@ -9871,7 +9871,7 @@
         <v>53.95</v>
       </c>
       <c r="K109" t="n">
-        <v>0.577</v>
+        <v>0.574</v>
       </c>
       <c r="L109" t="n">
         <v>0.2765144</v>
@@ -9948,7 +9948,7 @@
         <v>77.81999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>0.192</v>
+        <v>0.167</v>
       </c>
       <c r="L110" t="n">
         <v>-0.29152012</v>
@@ -10142,7 +10142,7 @@
         <v>0.1401269</v>
       </c>
       <c r="O112" t="n">
-        <v>60698</v>
+        <v>60702</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>135.54</v>
       </c>
       <c r="K118" t="n">
-        <v>0.65</v>
+        <v>0.676</v>
       </c>
       <c r="L118" t="n">
         <v>0.016980052</v>
@@ -10963,7 +10963,7 @@
         <v>15.022</v>
       </c>
       <c r="K121" t="n">
-        <v>0.775</v>
+        <v>0.725</v>
       </c>
       <c r="L121" t="n">
         <v>0.44773352</v>
@@ -11133,7 +11133,7 @@
         <v>74.51000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>1.33</v>
+        <v>1.315</v>
       </c>
       <c r="L123" t="n">
         <v>-0.05801791</v>
@@ -11303,7 +11303,7 @@
         <v>419.7</v>
       </c>
       <c r="K125" t="n">
-        <v>0.482</v>
+        <v>0.427</v>
       </c>
       <c r="L125" t="n">
         <v>0.042667985</v>
@@ -11382,7 +11382,7 @@
         <v>132.5</v>
       </c>
       <c r="K126" t="n">
-        <v>1.135</v>
+        <v>1.044</v>
       </c>
       <c r="L126" t="n">
         <v>0.27190757</v>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="O126" t="n">
-        <v>5190538</v>
+        <v>5189033</v>
       </c>
       <c r="P126" t="n">
         <v>8570500096</v>
@@ -11459,7 +11459,7 @@
         <v>149.43</v>
       </c>
       <c r="K127" t="n">
-        <v>1.262</v>
+        <v>1.289</v>
       </c>
       <c r="L127" t="n">
         <v>-0.0563761</v>
@@ -11473,7 +11473,7 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>10145854</v>
+        <v>10149470</v>
       </c>
       <c r="P127" t="n">
         <v>40696000512</v>
@@ -11617,7 +11617,7 @@
         <v>46.46</v>
       </c>
       <c r="K129" t="n">
-        <v>0.259</v>
+        <v>0.22</v>
       </c>
       <c r="L129" t="n">
         <v>0.15181112</v>
@@ -11880,7 +11880,7 @@
         <v>86.93000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>0.961</v>
+        <v>0.899</v>
       </c>
       <c r="L132" t="n">
         <v>-0.1561833</v>
@@ -11963,7 +11963,7 @@
         <v>18.51</v>
       </c>
       <c r="K133" t="n">
-        <v>1.074</v>
+        <v>1.018</v>
       </c>
       <c r="L133" t="n">
         <v>-0.47971934</v>
@@ -12141,7 +12141,7 @@
         <v>542.01</v>
       </c>
       <c r="K135" t="n">
-        <v>1.274</v>
+        <v>1.377</v>
       </c>
       <c r="L135" t="n">
         <v>0.5922576000000001</v>
@@ -12222,7 +12222,7 @@
         <v>14.87</v>
       </c>
       <c r="K136" t="n">
-        <v>1.675</v>
+        <v>1.695</v>
       </c>
       <c r="L136" t="n">
         <v>-0.13535792</v>
@@ -12236,7 +12236,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>811100</v>
+        <v>811079</v>
       </c>
       <c r="P136" t="n">
         <v>1237650944</v>
@@ -12303,7 +12303,7 @@
         <v>17.11</v>
       </c>
       <c r="K137" t="n">
-        <v>1.798</v>
+        <v>1.853</v>
       </c>
       <c r="L137" t="n">
         <v>-0.45261633</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>56833360</v>
+        <v>56770023</v>
       </c>
       <c r="P2" t="n">
         <v>395760009216</v>
@@ -613,7 +613,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>3773054</v>
+        <v>3763827</v>
       </c>
       <c r="P11" t="n">
         <v>3740421120</v>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>5125418</v>
+        <v>5126325</v>
       </c>
       <c r="P16" t="n">
         <v>5955800064</v>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>59648323</v>
+        <v>59418086</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>0.10130689</v>
       </c>
       <c r="O23" t="n">
-        <v>247804</v>
+        <v>247812</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>22602980</v>
+        <v>22608252</v>
       </c>
       <c r="P26" t="n">
         <v>16209088512</v>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>32845658</v>
+        <v>32825089</v>
       </c>
       <c r="P28" t="n">
         <v>261802000384</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>389091145</v>
+        <v>388048549</v>
       </c>
       <c r="P30" t="n">
         <v>130497003520</v>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>125977426</v>
+        <v>125697196</v>
       </c>
       <c r="P33" t="n">
         <v>2865507072</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
         <v>0.2058606</v>
       </c>
       <c r="O35" t="n">
-        <v>47654043</v>
+        <v>47554859</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>96057958</v>
+        <v>95798042</v>
       </c>
       <c r="P38" t="n">
         <v>20819873792</v>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>89229455</v>
+        <v>89482134</v>
       </c>
       <c r="P39" t="n">
         <v>84693000</v>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>1773419</v>
+        <v>1772730</v>
       </c>
       <c r="P56" t="n">
         <v>28262899712</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
         <v>0.29555848</v>
       </c>
       <c r="O63" t="n">
-        <v>8647377</v>
+        <v>8654651</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>9427575</v>
+        <v>9404459</v>
       </c>
       <c r="P65" t="n">
         <v>27634999296</v>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>305396</v>
+        <v>305454</v>
       </c>
       <c r="P66" t="n">
         <v>23739000832</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>3307117</v>
+        <v>3305530</v>
       </c>
       <c r="P67" t="n">
         <v>258805006336</v>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
         <v>-0.0024349</v>
       </c>
       <c r="O73" t="n">
-        <v>3152300</v>
+        <v>3152385</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7332,7 +7332,7 @@
         <v>0.023991</v>
       </c>
       <c r="O80" t="n">
-        <v>5489987</v>
+        <v>5511228</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>0.040471002</v>
       </c>
       <c r="O89" t="n">
-        <v>1354141</v>
+        <v>1354100</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
         <v>-0.020385101</v>
       </c>
       <c r="O90" t="n">
-        <v>11831519</v>
+        <v>11830980</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>17516672</v>
+        <v>17534168</v>
       </c>
       <c r="P94" t="n">
         <v>164500996096</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>22345355</v>
+        <v>22330866</v>
       </c>
       <c r="P107" t="n">
         <v>5376399872</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>4214630</v>
+        <v>4214408</v>
       </c>
       <c r="P123" t="n">
         <v>19672000512</v>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="O126" t="n">
-        <v>5189033</v>
+        <v>5190538</v>
       </c>
       <c r="P126" t="n">
         <v>8570500096</v>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Recent News</t>
         </is>
       </c>
     </row>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>4715475</v>
+        <v>4717409</v>
       </c>
       <c r="P135" t="n">
         <v>39000965120</v>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -12236,7 +12236,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>811079</v>
+        <v>811100</v>
       </c>
       <c r="P136" t="n">
         <v>1237650944</v>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
         </is>
       </c>
       <c r="O137" t="n">
-        <v>1742572</v>
+        <v>1739853</v>
       </c>
       <c r="P137" t="n">
         <v>1914929024</v>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No Title Available (No Link Available) | No Title Available (No Link Available) | No Title Available (No Link Available)</t>
         </is>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>45194576</v>
+        <v>45115735</v>
       </c>
       <c r="P5" t="n">
         <v>25784999936</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>51771737</v>
+        <v>51710394</v>
       </c>
       <c r="P7" t="n">
         <v>637959012352</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>9099588</v>
+        <v>9079840</v>
       </c>
       <c r="P8" t="n">
         <v>4709248000</v>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>39747248</v>
+        <v>39699402</v>
       </c>
       <c r="P9" t="n">
         <v>51574001664</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>9031205</v>
+        <v>9009777</v>
       </c>
       <c r="P10" t="n">
         <v>6293245952</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>3763827</v>
+        <v>3773054</v>
       </c>
       <c r="P11" t="n">
         <v>3740421120</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>6215541</v>
+        <v>6212869</v>
       </c>
       <c r="P12" t="n">
         <v>4767698944</v>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>5126325</v>
+        <v>5125418</v>
       </c>
       <c r="P16" t="n">
         <v>5955800064</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>59418086</v>
+        <v>59648323</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>22608252</v>
+        <v>22602980</v>
       </c>
       <c r="P26" t="n">
         <v>16209088512</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>32825089</v>
+        <v>32845658</v>
       </c>
       <c r="P28" t="n">
         <v>261802000384</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4231960</v>
+        <v>4231611</v>
       </c>
       <c r="P31" t="n">
         <v>12613999616</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>125697196</v>
+        <v>125977426</v>
       </c>
       <c r="P33" t="n">
         <v>2865507072</v>
@@ -3389,7 +3389,7 @@
         <v>0.2058606</v>
       </c>
       <c r="O35" t="n">
-        <v>47554859</v>
+        <v>47654043</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>0.29555848</v>
       </c>
       <c r="O63" t="n">
-        <v>8654651</v>
+        <v>8647377</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>9404459</v>
+        <v>9427575</v>
       </c>
       <c r="P65" t="n">
         <v>27634999296</v>
@@ -6249,7 +6249,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>3305530</v>
+        <v>3307117</v>
       </c>
       <c r="P67" t="n">
         <v>258805006336</v>
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>26711832</v>
+        <v>26707713</v>
       </c>
       <c r="P68" t="n">
         <v>54175997952</v>
@@ -6721,7 +6721,7 @@
         <v>-0.0024349</v>
       </c>
       <c r="O73" t="n">
-        <v>3152385</v>
+        <v>3152300</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>0.023991</v>
       </c>
       <c r="O80" t="n">
-        <v>5511228</v>
+        <v>5489987</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>0.040471002</v>
       </c>
       <c r="O89" t="n">
-        <v>1354100</v>
+        <v>1354141</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>17534168</v>
+        <v>17516672</v>
       </c>
       <c r="P94" t="n">
         <v>164500996096</v>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>3321334</v>
+        <v>3321487</v>
       </c>
       <c r="P106" t="n">
         <v>509400992</v>
@@ -10142,7 +10142,7 @@
         <v>0.1401269</v>
       </c>
       <c r="O112" t="n">
-        <v>60702</v>
+        <v>60698</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="O133" t="n">
-        <v>104133777</v>
+        <v>103968002</v>
       </c>
       <c r="P133" t="n">
         <v>53100998656</v>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>4717409</v>
+        <v>4715475</v>
       </c>
       <c r="P135" t="n">
         <v>39000965120</v>
@@ -12236,7 +12236,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>811100</v>
+        <v>811079</v>
       </c>
       <c r="P136" t="n">
         <v>1237650944</v>
